--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -508,15 +508,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>がんのステージ情報は **Stage IC** です。</t>
+          <t>がんのステージ情報: Stage IC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>**組織生検**  
-- 結果: 子宮内膜癌、Stage IC  
-- 日付: 2023-01-01
-他の診断検査情報は見当たらないため、これが最新の検査情報です。</t>
+          <t>**診断検査情報:**
+- **組織生検**: 子宮内膜癌、Stage ICと診断。
+**検査結果:**
+- 子宮内膜癌、Stage IC
+**備考:**
+- 検査日: 2023-01-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -561,15 +563,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>がんのステージ情報は **Stage IC** です。</t>
+          <t>がんのステージ情報: Stage IC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>**組織生検**  
-- 結果: 子宮内膜癌、Stage IC  
-- 日付: 2023-01-01
-他の診断検査情報は見当たらないため、これが最新の検査情報です。</t>
+          <t>**診断検査情報:**
+- **組織生検**: 子宮内膜癌、Stage ICと診断。
+**検査結果:**
+- 子宮内膜癌、Stage IC
+**備考:**
+- 検査日: 2023-01-01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -614,15 +618,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>がんのステージ情報は **Stage IC** です。</t>
+          <t>がんのステージ情報: Stage IC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>**組織生検**  
-- 結果: 子宮内膜癌、Stage IC  
-- 日付: 2023-01-01
-他の診断検査情報は見当たらないため、これが最新の検査情報です。</t>
+          <t>**診断検査情報:**
+- **組織生検**: 子宮内膜癌、Stage ICと診断。
+**検査結果:**
+- 子宮内膜癌、Stage IC
+**備考:**
+- 検査日: 2023-01-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -667,15 +673,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>がんのステージ情報：Stage IC</t>
+          <t>がんのステージ情報は **Stage IC** です。</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>**診断検査情報:**
-- **組織診断**:
-  - **日付**: 2023-01-01
-  - **結果**: 頚部腺癌、Stage IC</t>
+- **組織診断**
+  - **日付:** 2023-01-01
+  - **結果:** 頚部腺癌、Stage IC</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -690,8 +696,8 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>手術術式: 開腹子宮摘出術
-手術時間: 250分
+          <t>手術術式: 開腹子宮摘出術  
+手術時間: 250分  
 出血量: 226ml</t>
         </is>
       </c>
@@ -720,15 +726,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>がんのステージ情報：Stage IC</t>
+          <t>がんのステージ情報は **Stage IC** です。</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>**診断検査情報:**
-- **組織診断**:
-  - **日付**: 2023-01-01
-  - **結果**: 頚部腺癌、Stage IC</t>
+- **組織診断**
+  - **日付:** 2023-01-01
+  - **結果:** 頚部腺癌、Stage IC</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -743,8 +749,8 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>手術術式: 開腹子宮摘出術
-手術時間: 250分
+          <t>手術術式: 開腹子宮摘出術  
+手術時間: 250分  
 出血量: 226ml</t>
         </is>
       </c>
@@ -773,15 +779,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>がんのステージ情報：Stage IC</t>
+          <t>がんのステージ情報は **Stage IC** です。</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>**診断検査情報:**
-- **組織診断**:
-  - **日付**: 2023-01-01
-  - **結果**: 頚部腺癌、Stage IC</t>
+- **組織診断**
+  - **日付:** 2023-01-01
+  - **結果:** 頚部腺癌、Stage IC</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -796,8 +802,8 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>手術術式: 開腹子宮摘出術
-手術時間: 250分
+          <t>手術術式: 開腹子宮摘出術  
+手術時間: 250分  
 出血量: 226ml</t>
         </is>
       </c>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,6 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>分析結果_がん診断名抽出</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>分析結果_がんステージ抽出</t>
         </is>
       </c>
     </row>
@@ -480,11 +475,6 @@
           <t>"子宮体部類内膜癌"</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>**Stage IVB**</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,11 +495,6 @@
           <t>"明細胞癌"</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>がんのステージ情報は **Stage IIIA** です。</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,11 +513,6 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>"漿液性卵巣癌"</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>抽出されたがんのステージ情報は **Stage IVC** です。</t>
         </is>
       </c>
     </row>
@@ -557,11 +537,6 @@
           <t>"子宮体がん"</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>がんのステージ情報は **Stage IIA** です。</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,9 +559,2294 @@
           <t>"子宮体癌"</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>がんのステージ情報は **Stage IIIB** です。</t>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、卵巣腫瘍、Stage IVAと診断。
+[2023-01-16]
+治療方針：開腹子宮全摘の方針。
+[2023-02-03]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間131分、出血量622ml。
+[2023-02-25]
+術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 9.8%）あり
+[2023-03-09]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-03-21]
+術後化学療法としてTC療法を開始。 高度肥満（BMI 34.7）
+[2023-04-16]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A
+解析:
+- テキストにはがんの具体的な診断名（例：卵巣がん、子宮体癌など）が記載されていません。
+- "卵巣腫瘍" とありますが、これは診断名ではなく病変の一般的な説明です。
+- がんの組織型や詳細な診断名が明確に記載されていないため、N/A を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、卵巣腫瘍、Stage IIAと診断。
+[2023-01-28]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-02-10]
+手術記録：開腹子宮摘出術施行。手術時間127分、出血量68ml。
+[2023-02-21]
+術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 7.6%）あり
+[2023-03-10]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-03-23]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023年1月1日の記録で「卵巣腫瘍、Stage IIA」と診断されているが、具体的な組織型やがんの種類（例：漿液性、粘液性など）が明記されていない。
+- その後の記録では明確な診断名が更新されていない。
+- したがって、がんの正式な診断名を抽出することができないため、"N/A" を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮体部癌、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中
+[2023-01-13]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-02-05]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間327分、出血量565ml。
+[2023-02-19]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 39.8）</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、卵巣腫瘍、Stage ICと診断。 腎機能低下（Cr 2.8 mg/dl）
+[2023-01-16]
+治療方針：開腹全摘術の方針。
+[2023-01-28]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間147分、出血量426ml。
+[2023-02-16]
+術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 53%）あり
+[2023-03-03]
+術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析: 提供されたテキストには、具体的ながんの診断名（例：卵巣がん、子宮体癌等）が明記されていません。卵巣腫瘍と記述がありますが、これががんであることが直接示されていないため、確実な診断名を抽出することはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮頚癌、Stage IVAと診断。
+[2023-01-26]
+治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 46%）あり
+[2023-02-12]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間303分、出血量621ml。
+[2023-03-06]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-03-30]
+術後化学療法としてDC療法を開始。
+[2023-04-20]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、卵巣がん、Stage IIIAと診断。 心機能低下（EF 32%）あり
+[2023-01-22]
+治療方針：開腹子宮摘出術の方針。 心機能低下（EF 38%）あり
+[2023-02-19]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間189分、出血量361ml。
+[2023-03-01]
+術後化学療法としてDC療法を開始。 心機能低下（EF 35%）あり
+[2023-03-18]
+術後化学療法としてTC療法を開始。
+[2023-04-17]
+術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮内膜癌、Stage IVBと診断。
+[2023-01-29]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-02-05]
+手術記録：開腹子宮全摘施行。手術時間205分、出血量180ml。</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、体部類内膜癌、Stage IVAと診断。
+[2023-01-29]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-08]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間179分、出血量293ml。</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、頸部扁平上皮癌、Stage ICと診断。 腎機能低下（Cr 1.6 mg/dl）
+[2023-01-18]
+治療方針：開腹子宮全摘出術の方針。 高度肥満（BMI 35.0）
+[2023-02-15]
+手術記録：開腹子宮摘出術施行。手術時間189分、出血量122ml。
+[2023-02-22]
+術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮体部類内膜癌、Stage IBと診断。
+[2023-01-30]
+治療方針：開腹全摘術の方針。
+[2023-02-22]
+手術記録：腹腔鏡下子宮全摘施行。手術時間145分、出血量685ml。
+[2023-03-12]
+術後化学療法としてTCを開始。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、子宮体部類内膜癌、Stage IIIAと診断。
+[2023-01-31]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-02-13]
+手術記録：開腹子宮摘出術施行。手術時間313分、出血量946ml。
+[2023-02-24]
+術後化学療法としてTCを開始。
+[2023-03-20]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-04-01]
+術後化学療法としてweekly PTXを開始。
+[2023-04-15]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、頸部扁平上皮癌、Stage IIICと診断。
+[2023-01-21]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-01-29]
+手術記録：腹腔鏡下全摘術施行。手術時間146分、出血量216ml。</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、子宮頸がん、Stage IVCと診断。 抗凝固薬（エリキュース）服用中
+[2023-01-29]
+治療方針：腹腔鏡下全摘術の方針。 高度肥満（BMI 39.2）
+[2023-02-11]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間204分、出血量409ml。
+[2023-02-28]
+術後化学療法としてTC療法を開始。
+[2023-03-22]
+術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮体部類内膜癌、Stage IICと診断。
+[2023-01-08]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-03]
+手術記録：開腹子宮全摘出術施行。手術時間162分、出血量970ml。
+[2023-02-12]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 心機能低下（EF 52%）あり
+[2023-03-14]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-03-27]
+術後化学療法としてDCを開始。
+[2023-04-12]
+術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸部癌、Stage IIIAと診断。
+[2023-01-18]
+治療方針：開腹子宮摘出術の方針。 高度肥満（BMI 32.5）
+[2023-02-05]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間281分、出血量406ml。
+[2023-02-19]
+術後化学療法としてTCを開始。
+[2023-03-07]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-04-04]
+術後化学療法としてDC療法を開始。 腎機能低下（Cr 2.1 mg/dl）
+[2023-04-24]
+術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、漿液性卵巣癌、Stage IVAと診断。
+[2023-01-11]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 2.8 mg/dl）
+[2023-01-20]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間130分、出血量903ml。
+[2023-02-18]
+術後化学療法としてwPTXを開始。 心機能低下（EF 39%）あり
+[2023-03-02]
+術後化学療法としてDC療法を開始。
+[2023-03-28]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-04-25]
+術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮体がん、Stage IVCと診断。
+[2023-01-24]
+治療方針：開腹子宮摘出術の方針。 高度肥満（BMI 34.2）
+[2023-02-19]
+手術記録：腹腔鏡下子宮全摘施行。手術時間225分、出血量170ml。
+[2023-03-09]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-03-22]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-04-15]
+術後化学療法としてweekly パクリタキセルを開始。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、頚部腺癌、Stage IIICと診断。
+[2023-01-20]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-07]
+手術記録：開腹子宮摘出術施行。手術時間159分、出血量320ml。
+[2023-03-08]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-03-29]
+術後化学療法として毎週パクリタキセルを開始。 腎機能低下（Cr 1.7 mg/dl）
+[2023-04-24]
+術後化学療法としてPTX+CBDCAを開始。 腎機能低下（Cr 2.1 mg/dl）</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頚癌、Stage IIBと診断。 抗凝固薬（ワーファリン）服用中
+[2023-01-15]
+治療方針：開腹子宮摘出術の方針。
+[2023-01-23]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間130分、出血量128ml。
+[2023-02-17]
+術後化学療法としてweekly PTXを開始。 心機能低下（EF 45%）あり
+[2023-03-14]
+術後化学療法としてweekly PTXを開始。
+[2023-03-22]
+術後化学療法としてwPTXを開始。
+[2023-04-13]
+術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体部類内膜癌、Stage IICと診断。
+[2023-01-26]
+治療方針：開腹全摘術の方針。
+[2023-02-25]
+手術記録：開腹子宮全摘施行。手術時間203分、出血量724ml。
+[2023-03-10]
+術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、頚部腺癌、Stage IIAと診断。
+[2023-01-19]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-02-10]
+手術記録：腹腔鏡下子宮全摘施行。手術時間264分、出血量695ml。
+[2023-02-19]
+術後化学療法としてDC療法を開始。
+[2023-03-21]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-03-28]
+術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮体部癌、Stage IBと診断。
+[2023-01-25]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-03]
+手術記録：開腹子宮全摘出術施行。手術時間326分、出血量543ml。
+[2023-02-22]
+術後化学療法としてDCを開始。 心機能低下（EF 46%）あり
+[2023-03-04]
+術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、高異型度漿液性癌、Stage IVBと診断。
+[2023-01-09]
+治療方針：腹腔鏡下子宮全摘出術の方針。 糖尿病（HbA1c 9.8%）あり
+[2023-01-29]
+手術記録：開腹子宮全摘施行。手術時間339分、出血量516ml。
+[2023-02-20]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 抗凝固薬（ワーファリン）服用中
+[2023-03-07]
+術後化学療法としてDCを開始。
+[2023-03-27]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-04-23]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頸がん、Stage IICと診断。
+[2023-01-30]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-09]
+手術記録：開腹子宮全摘出術施行。手術時間247分、出血量127ml。
+[2023-03-01]
+術後化学療法としてPTX+CBDCAを開始。 心機能低下（EF 37%）あり
+[2023-03-21]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-04-20]
+術後化学療法として毎週パクリタキセルを開始。 抗凝固薬（エリキュース）服用中
+[2023-05-16]
+術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、卵巣がん、Stage IIIAと診断。
+[2023-01-20]
+治療方針：開腹全摘術の方針。
+[2023-02-16]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間318分、出血量644ml。
+[2023-03-18]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-03-29]
+術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、体部類内膜癌、Stage IICと診断。
+[2023-01-17]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-05]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間295分、出血量223ml。
+[2023-02-13]
+術後化学療法としてTC療法を開始。
+[2023-03-02]
+術後化学療法としてwPTXを開始。
+[2023-03-17]
+術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、卵巣癌、Stage IIAと診断。
+[2023-01-22]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 糖尿病（HbA1c 9.2%）あり
+[2023-02-13]
+手術記録：開腹子宮全摘施行。手術時間137分、出血量607ml。
+[2023-02-23]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-03-13]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-03-25]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮頸がん、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中
+[2023-01-14]
+治療方針：開腹全摘術の方針。 抗凝固薬（イグザレルト）服用中
+[2023-01-22]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間348分、出血量176ml。</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頸癌、Stage IVCと診断。
+[2023-01-09]
+治療方針：腹腔鏡下子宮全摘出術の方針。 高度肥満（BMI 30.2）
+[2023-01-21]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間223分、出血量442ml。
+[2023-01-28]
+術後化学療法としてDC療法を開始。 心機能低下（EF 46%）あり
+[2023-02-14]
+術後化学療法としてDCを開始。
+[2023-03-04]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.7 mg/dl）
+[2023-03-31]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 糖尿病（HbA1c 8.9%）あり</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸癌、Stage ICと診断。 高度肥満（BMI 34.8）
+[2023-01-21]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-02-10]
+手術記録：開腹全摘術施行。手術時間132分、出血量152ml。
+[2023-03-12]
+術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮頸癌、Stage IIBと診断。
+[2023-01-16]
+治療方針：開腹子宮全摘の方針。
+[2023-02-08]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間340分、出血量500ml。</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、子宮体部癌、Stage IVAと診断。
+[2023-01-30]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-02-13]
+手術記録：腹腔鏡下全摘術施行。手術時間285分、出血量519ml。</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、高異型度漿液性癌、Stage IAと診断。
+[2023-01-17]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-02-12]
+手術記録：開腹子宮全摘出術施行。手術時間222分、出血量907ml。</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体部類内膜癌、Stage IAと診断。 心機能低下（EF 50%）あり
+[2023-01-28]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-02-05]
+手術記録：腹腔鏡下子宮全摘施行。手術時間295分、出血量917ml。
+[2023-02-17]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、頸部扁平上皮癌、Stage IBと診断。
+[2023-01-27]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-05]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間359分、出血量869ml。</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、明細胞癌、Stage IVBと診断。 腎機能低下（Cr 2.6 mg/dl）
+[2023-01-29]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-08]
+手術記録：開腹子宮摘出術施行。手術時間344分、出血量73ml。
+[2023-02-27]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 32.8）
+[2023-03-12]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.9 mg/dl）
+[2023-04-07]
+術後化学療法としてTCを開始。 腎機能低下（Cr 2.3 mg/dl）</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、子宮体部類内膜癌、Stage IBと診断。
+[2023-01-17]
+治療方針：腹腔鏡下子宮摘出術の方針。
+[2023-02-07]
+手術記録：腹腔鏡下全摘術施行。手術時間148分、出血量579ml。
+[2023-02-27]
+術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮内膜癌、Stage ICと診断。
+[2023-01-31]
+治療方針：開腹子宮摘出術の方針。
+[2023-03-02]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間302分、出血量679ml。
+[2023-03-24]
+術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮頸癌、Stage IBと診断。
+[2023-01-21]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-01-29]
+手術記録：開腹子宮全摘施行。手術時間329分、出血量76ml。
+[2023-02-17]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、卵巣癌、Stage IIIAと診断。
+[2023-01-21]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-02-13]
+手術記録：腹腔鏡下子宮全摘施行。手術時間264分、出血量423ml。
+[2023-03-06]
+術後化学療法としてwPTXを開始。
+[2023-04-03]
+術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸がん、Stage IAと診断。 心機能低下（EF 38%）あり
+[2023-01-08]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-01-31]
+手術記録：腹腔鏡下全摘術施行。手術時間146分、出血量313ml。
+[2023-02-17]
+術後化学療法としてweekly PTXを開始。
+[2023-03-14]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、頸部扁平上皮癌、Stage IIBと診断。
+[2023-01-16]
+治療方針：開腹全摘術の方針。
+[2023-02-05]
+手術記録：開腹全摘術施行。手術時間138分、出血量755ml。</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、卵巣癌、Stage IICと診断。
+[2023-01-30]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-14]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間347分、出血量574ml。
+[2023-03-11]
+術後化学療法としてweekly PTXを開始。
+[2023-03-21]
+術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮体がん、Stage IIAと診断。 糖尿病（HbA1c 7.6%）あり
+[2023-01-24]
+治療方針：開腹子宮全摘の方針。
+[2023-02-16]
+手術記録：腹腔鏡下全摘術施行。手術時間184分、出血量779ml。
+[2023-03-01]
+術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頸がん、Stage IAと診断。
+[2023-01-12]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-02-07]
+手術記録：開腹全摘術施行。手術時間220分、出血量59ml。</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮体癌、Stage IVBと診断。 高度肥満（BMI 36.2）
+[2023-01-16]
+治療方針：開腹子宮全摘出術の方針。
+[2023-02-11]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間299分、出血量431ml。
+[2023-03-08]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-04-05]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、頚部腺癌、Stage IVBと診断。
+[2023-01-11]
+治療方針：開腹子宮摘出術の方針。
+[2023-01-28]
+手術記録：腹腔鏡下全摘術施行。手術時間216分、出血量450ml。
+[2023-02-18]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-03-05]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-04-03]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、卵巣がん、Stage IVCと診断。 心機能低下（EF 38%）あり
+[2023-01-25]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-02-19]
+手術記録：開腹子宮摘出術施行。手術時間132分、出血量284ml。</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、子宮頸がん、Stage ICと診断。 腎機能低下（Cr 1.5 mg/dl）
+[2023-01-18]
+治療方針：開腹子宮全摘出術の方針。
+[2023-02-10]
+手術記録：開腹子宮全摘施行。手術時間228分、出血量631ml。
+[2023-03-08]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-03-24]
+術後化学療法としてDCを開始。 抗凝固薬（エリキュース）服用中
+[2023-04-11]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、卵巣がん、Stage IIBと診断。
+[2023-01-18]
+治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 8.3%）あり
+[2023-01-30]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間266分、出血量211ml。
+[2023-02-08]
+術後化学療法としてDC療法を開始。
+[2023-02-25]
+術後化学療法としてDCを開始。 腎機能低下（Cr 1.5 mg/dl）
+[2023-03-18]
+術後化学療法としてwPTXを開始。 糖尿病（HbA1c 8.9%）あり</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、卵巣がん、Stage IIIBと診断。 心機能低下（EF 30%）あり
+[2023-01-25]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-16]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間207分、出血量335ml。
+[2023-03-03]
+術後化学療法としてTCを開始。 心機能低下（EF 48%）あり
+[2023-03-27]
+術後化学療法としてTCを開始。
+[2023-04-16]
+術後化学療法としてTCを開始。 腎機能低下（Cr 2.3 mg/dl）
+[2023-04-29]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮内膜癌、Stage IIAと診断。 心機能低下（EF 37%）あり
+[2023-01-28]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-12]
+手術記録：開腹子宮全摘出術施行。手術時間136分、出血量991ml。
+[2023-02-26]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、卵巣癌、Stage IIICと診断。 高度肥満（BMI 33.7）
+[2023-01-17]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-02-01]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間327分、出血量974ml。
+[2023-02-24]
+術後化学療法としてDC療法を開始。 心機能低下（EF 32%）あり
+[2023-03-25]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"
+ただし、原文では具体的な組織型（例：漿液性）が明記されていないため、正確な診断名は "卵巣癌" となります。明確な組織型が記載されていない場合、"卵巣癌" として抽出します。
+最終的な出力:
+"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体癌、Stage IVBと診断。
+[2023-01-28]
+治療方針：開腹全摘術の方針。 糖尿病（HbA1c 6.8%）あり
+[2023-02-15]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間142分、出血量899ml。</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸部癌、Stage ICと診断。 糖尿病（HbA1c 8.2%）あり
+[2023-01-23]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-19]
+手術記録：開腹全摘術施行。手術時間308分、出血量510ml。
+[2023-03-07]
+術後化学療法としてTC療法を開始。
+[2023-03-16]
+術後化学療法としてTC療法を開始。
+[2023-03-28]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-04-09]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、体部類内膜癌、Stage IIIBと診断。
+[2023-01-11]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-01-22]
+手術記録：開腹子宮全摘施行。手術時間256分、出血量415ml。</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮内膜癌、Stage IIBと診断。
+[2023-01-17]
+治療方針：開腹子宮全摘出術の方針。
+[2023-02-04]
+手術記録：開腹全摘術施行。手術時間338分、出血量714ml。
+[2023-03-06]
+術後化学療法としてwPTXを開始。 糖尿病（HbA1c 7.7%）あり
+[2023-03-18]
+術後化学療法としてDCを開始。
+[2023-04-06]
+術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頸部癌、Stage IIIAと診断。 高度肥満（BMI 33.3）
+[2023-01-15]
+治療方針：開腹全摘術の方針。 抗凝固薬（プラザキサ）服用中
+[2023-02-07]
+手術記録：腹腔鏡下全摘術施行。手術時間331分、出血量558ml。
+[2023-03-03]
+術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 54%）あり
+[2023-03-24]
+術後化学療法としてPTX+CBDCAを開始。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体部癌、Stage IIBと診断。
+[2023-01-29]
+治療方針：腹腔鏡下子宮全摘の方針。 高度肥満（BMI 39.4）
+[2023-02-12]
+手術記録：開腹全摘術施行。手術時間154分、出血量972ml。
+[2023-03-09]
+術後化学療法としてTCを開始。
+[2023-04-04]
+術後化学療法としてweekly パクリタキセルを開始。 腎機能低下（Cr 2.5 mg/dl）
+[2023-04-27]
+術後化学療法としてDCを開始。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、体部類内膜癌、Stage IVAと診断。
+[2023-01-23]
+治療方針：開腹全摘術の方針。
+[2023-02-10]
+手術記録：腹腔鏡下全摘術施行。手術時間130分、出血量396ml。
+[2023-03-04]
+術後化学療法としてweekly PTXを開始。 心機能低下（EF 54%）あり
+[2023-03-21]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 抗凝固薬（エリキュース）服用中
+[2023-04-03]
+術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、卵巣がん、Stage IIBと診断。 高度肥満（BMI 39.1）
+[2023-01-14]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-02-05]
+手術記録：開腹子宮全摘施行。手術時間271分、出血量332ml。
+[2023-03-06]
+術後化学療法としてドセタキセル+カルボプラチンを開始。
+[2023-03-30]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-04-29]
+術後化学療法としてDC療法を開始。 腎機能低下（Cr 2.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、明細胞癌、Stage IAと診断。 糖尿病（HbA1c 8.4%）あり
+[2023-01-14]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-02-08]
+手術記録：開腹子宮全摘施行。手術時間266分、出血量100ml。</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、卵巣腫瘍、Stage IIBと診断。
+[2023-01-15]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-01-30]
+手術記録：腹腔鏡下全摘術施行。手術時間334分、出血量337ml。</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>N/A
+理由: テキスト中には「卵巣腫瘍」としか記載されておらず、具体的ながんの診断名（例：漿液性卵巣癌）が明確に述べられていません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、卵巣腫瘍、Stage IVAと診断。
+[2023-01-08]
+治療方針：開腹全摘術の方針。
+[2023-02-07]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間248分、出血量87ml。
+[2023-03-02]
+術後化学療法としてTCを開始。 糖尿病（HbA1c 8.2%）あり</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 の記録では「卵巣腫瘍」と記載されていますが、これは具体的ながんの診断名ではありません。
+- その後の記録では、具体的ながんの診断名が明記されていません。
+- したがって、明確な診断名がないため、"N/A" を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮頸がん、Stage IBと診断。
+[2023-01-23]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。 心機能低下（EF 33%）あり
+[2023-02-07]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間344分、出血量220ml。
+[2023-02-26]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、頚部腺癌、Stage IBと診断。
+[2023-01-31]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-02-19]
+手術記録：開腹子宮全摘施行。手術時間329分、出血量623ml。
+[2023-03-03]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、高異型度漿液性癌、Stage IIIBと診断。 抗凝固薬（ワーファリン）服用中
+[2023-01-16]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-10]
+手術記録：開腹全摘術施行。手術時間329分、出血量528ml。
+[2023-02-17]
+術後化学療法としてPTX+CBDCAを開始。 糖尿病（HbA1c 8.7%）あり</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、卵巣腫瘍、Stage IIICと診断。
+[2023-01-10]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 高度肥満（BMI 39.1）
+[2023-01-25]
+手術記録：開腹子宮全摘施行。手術時間356分、出血量583ml。</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」とありますが、これだけではがんの診断名とは言えません。
+- その後の記録ではより具体的な診断名が見られず、がんの正式な診断名が明確に記載されていません。
+- したがって、有効ながんの診断名が見つからないため、"N/A" を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体部癌、Stage IBと診断。 腎機能低下（Cr 2.6 mg/dl）
+[2023-01-08]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-01-15]
+手術記録：腹腔鏡下子宮全摘施行。手術時間234分、出血量695ml。
+[2023-02-12]
+術後化学療法としてweekly PTXを開始。
+[2023-02-25]
+術後化学療法としてPTX+CBDCAを開始。 高度肥満（BMI 30.8）</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、頚部腺癌、Stage IICと診断。
+[2023-01-22]
+治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（ワーファリン）服用中
+[2023-02-13]
+手術記録：開腹全摘術施行。手術時間168分、出血量467ml。</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、卵巣腫瘍、Stage IAと診断。 高度肥満（BMI 30.8）
+[2023-01-21]
+治療方針：開腹全摘術の方針。
+[2023-01-31]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間352分、出血量700ml。
+[2023-02-19]
+術後化学療法としてTC療法を開始。 腎機能低下（Cr 1.7 mg/dl）</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>"N/A"
+このテキストにはがんの具体的な診断名（例：卵巣がん、子宮体癌など）が明記されていません。卵巣腫瘍と診断されていることが述べられていますが、これは具体的ながんの診断名とは言えません。そのため、抽出する診断名が見つからず、"N/A" を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮頸癌、Stage IVBと診断。 腎機能低下（Cr 2.2 mg/dl）
+[2023-01-26]
+治療方針：開腹子宮全摘の方針。
+[2023-02-16]
+手術記録：腹腔鏡下全摘術施行。手術時間196分、出血量389ml。
+[2023-03-09]
+術後化学療法としてTC療法を開始。
+[2023-03-16]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-04-07]
+術後化学療法としてDCを開始。 糖尿病（HbA1c 6.9%）あり
+[2023-05-05]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、頸部扁平上皮癌、Stage IVCと診断。 腎機能低下（Cr 2.5 mg/dl）
+[2023-01-28]
+治療方針：開腹全摘術の方針。
+[2023-02-15]
+手術記録：開腹子宮全摘出術施行。手術時間231分、出血量547ml。
+[2023-03-12]
+術後化学療法としてDC療法を開始。
+[2023-03-20]
+術後化学療法としてTC療法を開始。
+[2023-04-12]
+術後化学療法として毎週パクリタキセルを開始。 高度肥満（BMI 36.9）
+[2023-04-29]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮内膜癌、Stage ICと診断。 抗凝固薬（ワーファリン）服用中
+[2023-01-08]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-01-29]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間163分、出血量564ml。
+[2023-02-13]
+術後化学療法としてDC療法を開始。
+[2023-02-26]
+術後化学療法としてwPTXを開始。 糖尿病（HbA1c 7.2%）あり</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮体癌、Stage IBと診断。
+[2023-01-20]
+治療方針：腹腔鏡下子宮摘出術の方針。
+[2023-02-04]
+手術記録：腹腔鏡下全摘術施行。手術時間221分、出血量956ml。
+[2023-02-13]
+術後化学療法としてDC療法を開始。
+[2023-03-09]
+術後化学療法としてDC療法を開始。
+[2023-04-06]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 高度肥満（BMI 33.1）</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頸がん、Stage IIAと診断。 抗凝固薬（ワーファリン）服用中
+[2023-01-24]
+治療方針：開腹子宮全摘出術の方針。 抗凝固薬（エリキュース）服用中
+[2023-02-13]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間289分、出血量294ml。
+[2023-03-06]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.6 mg/dl）
+[2023-03-23]
+術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮頚癌、Stage IVBと診断。 高度肥満（BMI 39.4）
+[2023-01-25]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 高度肥満（BMI 33.0）
+[2023-02-14]
+手術記録：開腹子宮全摘施行。手術時間297分、出血量922ml。
+[2023-02-28]
+術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、卵巣がん、Stage ICと診断。 心機能低下（EF 39%）あり
+[2023-01-30]
+治療方針：開腹子宮全摘出術の方針。
+[2023-02-10]
+手術記録：腹腔鏡下子宮全摘施行。手術時間172分、出血量369ml。
+[2023-03-06]
+術後化学療法としてTC療法を開始。 腎機能低下（Cr 2.4 mg/dl）</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頚癌、Stage IICと診断。
+[2023-01-24]
+治療方針：開腹子宮全摘出術の方針。
+[2023-02-23]
+手術記録：腹腔鏡下子宮全摘施行。手術時間246分、出血量937ml。
+[2023-03-21]
+術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、子宮体がん、Stage IIICと診断。
+[2023-01-17]
+治療方針：開腹子宮全摘出術の方針。 心機能低下（EF 33%）あり
+[2023-01-31]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間343分、出血量59ml。</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、子宮頸部癌、Stage IIIBと診断。
+[2023-01-29]
+治療方針：腹腔鏡下子宮摘出術の方針。
+[2023-02-28]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間335分、出血量872ml。
+[2023-03-20]
+術後化学療法としてTCを開始。 抗凝固薬（プラザキサ）服用中
+[2023-04-10]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-04-24]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、体部類内膜癌、Stage IIIAと診断。 高度肥満（BMI 36.5）
+[2023-01-22]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-05]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間331分、出血量309ml。
+[2023-02-20]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、卵巣癌、Stage IIIAと診断。 高度肥満（BMI 32.7）
+[2023-01-21]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-19]
+手術記録：開腹子宮摘出術施行。手術時間349分、出血量624ml。
+[2023-03-10]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-03-25]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮体がん、Stage IIIBと診断。
+[2023-01-12]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-09]
+手術記録：開腹子宮摘出術施行。手術時間356分、出血量685ml。
+[2023-02-22]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-03-10]
+術後化学療法としてDC療法を開始。 糖尿病（HbA1c 8.3%）あり
+[2023-03-21]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-04-04]
+術後化学療法としてwPTXを開始。 糖尿病（HbA1c 7.2%）あり</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮頸癌、Stage IIAと診断。 高度肥満（BMI 30.6）
+[2023-01-19]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-02-11]
+手術記録：開腹子宮全摘施行。手術時間307分、出血量682ml。</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体部類内膜癌、Stage ICと診断。
+[2023-01-12]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-01-24]
+手術記録：開腹全摘術施行。手術時間320分、出血量479ml。
+[2023-02-23]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-03-11]
+術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、頚部腺癌、Stage IIICと診断。 高度肥満（BMI 39.2）
+[2023-01-22]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-02]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間123分、出血量434ml。
+[2023-03-02]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-04-01]
+術後化学療法としてTC療法を開始。
+[2023-04-17]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、子宮体部類内膜癌、Stage IAと診断。
+[2023-01-31]
+治療方針：腹腔鏡下全摘術の方針。 腎機能低下（Cr 2.7 mg/dl）
+[2023-02-24]
+手術記録：開腹全摘術施行。手術時間234分、出血量299ml。
+[2023-03-20]
+術後化学療法としてTCを開始。 糖尿病（HbA1c 9.2%）あり
+[2023-04-03]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮内膜癌、Stage IIBと診断。 糖尿病（HbA1c 6.7%）あり
+[2023-01-31]
+治療方針：開腹子宮全摘の方針。 抗凝固薬（プラザキサ）服用中
+[2023-02-24]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間294分、出血量441ml。
+[2023-03-04]
+術後化学療法としてDC療法を開始。
+[2023-03-15]
+術後化学療法としてドセタキセル+カルボプラチンを開始。
+[2023-03-26]
+術後化学療法としてDCを開始。
+[2023-04-07]
+術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体部類内膜癌、Stage IIIAと診断。 心機能低下（EF 52%）あり
+[2023-01-13]
+治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 48%）あり
+[2023-01-20]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間242分、出血量612ml。
+[2023-02-02]
+術後化学療法としてweekly PTXを開始。
+[2023-02-12]
+術後化学療法としてTCを開始。 腎機能低下（Cr 2.0 mg/dl）
+[2023-03-03]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、頚部腺癌、Stage IVCと診断。 心機能低下（EF 48%）あり
+[2023-01-12]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-02]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間154分、出血量496ml。
+[2023-02-21]
+術後化学療法としてwPTXを開始。
+[2023-03-17]
+術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、体部類内膜癌、Stage IICと診断。 腎機能低下（Cr 2.5 mg/dl）
+[2023-01-19]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-08]
+手術記録：開腹子宮摘出術施行。手術時間128分、出血量813ml。</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、頸部扁平上皮癌、Stage IIIBと診断。
+[2023-01-28]
+治療方針：開腹全摘術の方針。
+[2023-02-13]
+手術記録：開腹子宮全摘出術施行。手術時間201分、出血量372ml。
+[2023-03-15]
+術後化学療法としてTCを開始。
+[2023-03-22]
+術後化学療法としてTCを開始。 高度肥満（BMI 32.1）
+[2023-04-07]
+術後化学療法としてwPTXを開始。
+[2023-05-07]
+術後化学療法としてwPTXを開始。 心機能低下（EF 46%）あり</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸癌、Stage IVAと診断。
+[2023-01-14]
+治療方針：開腹全摘術の方針。 糖尿病（HbA1c 6.7%）あり
+[2023-01-26]
+手術記録：腹腔鏡下全摘術施行。手術時間299分、出血量160ml。
+[2023-02-11]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-03-07]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-03-26]
+術後化学療法としてPTX+CBDCAを開始。 心機能低下（EF 50%）あり
+[2023-04-07]
+術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮体がん、Stage IVBと診断。
+[2023-01-24]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-02-17]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間124分、出血量161ml。
+[2023-03-14]
+術後化学療法としてDC療法を開始。
+[2023-04-06]
+術後化学療法としてwPTXを開始。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,41 +447,6 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>分析結果_がん診断名抽出</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>分析結果_がんステージ抽出</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>分析結果_診断検査抽出</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>分析結果_初回治療抽出</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>分析結果_化学療法情報抽出</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>分析結果_手術術式抽出</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>分析結果_特記事項抽出</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>分析結果_pTN分類抽出</t>
         </is>
       </c>
     </row>
@@ -510,55 +475,6 @@
           <t>"子宮体部類内膜癌"</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>がんのステージ情報は **Stage IVB** です。</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>**組織診**  
-- 結果: 体部類内膜癌、Stage IVB  
-- 日付: 2023-01-01  
-他の診断検査情報は見当たりません。したがって、組織診が最新の診断検査となります。</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>初回治療: 腹腔鏡下子宮全摘出術 [2023-02-10]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>- 開始日: 2023-02-20, レジメン: ドセタキセル+カルボプラチン, 詳細: N/A
-- 開始日: 2023-03-13, レジメン: 毎週パクリタキセル, 詳細: 毎週投与</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>手術術式: 腹腔鏡下子宮全摘出術  
-手術時間: 187分  
-出血量: 214ml</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>- "術後出血リスク高（抗凝固薬服用中）"
-- "糖尿病（HbA1c 9.1%）あり"
-- "心機能低下（EF 55%）あり"</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>```json
-[
-    {"T": "null","N": "null"}
-]
-```
-説明:
-与えられた病理レポートには、T分類やN分類に関する情報が含まれていません。そのため、両方の項目を "null" として出力しました。</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -579,49 +495,203 @@
           <t>"明細胞癌"</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>がんのステージ情報として最新のものが「Stage IIIA」です。</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>**診断検査情報:**
-- **検査:** 内膜組織診
-- **結果:** 明細胞癌、Stage IIIA
-- **日付:** 2023-01-01
-他の検査情報は見つかりませんでした。</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>初回治療: 腹腔鏡下子宮全摘出術 [2023-02-18]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>手術術式: 腹腔鏡下子宮全摘出術  
-手術時間: 340分  
-出血量: 728ml</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>- "手術時間長（340分）、出血量多（728ml）"</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>```json
-[{"T": "null","N": "null"}]
-```
-**理由:**
-- 提供されたテキストには、具体的なpT分類やpN分類の情報が含まれていません。明細胞癌のステージ（Stage IIIA）が記載されていますが、これはTNM分類の詳細な情報（TやNの具体的な値）に直接紐づいていません。そのため、TとNの分類は "null" としました。</t>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、漿液性卵巣癌、Stage IVCと診断。 高度肥満（BMI 31.6）
+[2023-01-28]
+治療方針：開腹子宮全摘の方針。
+[2023-02-16]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間321分、出血量767ml。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮体がん、Stage IIAと診断。 腎機能低下（Cr 1.8 mg/dl）
+[2023-01-24]
+治療方針：開腹全摘術の方針。
+[2023-02-12]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間162分、出血量164ml。
+[2023-02-21]
+術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 8.2%）あり</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮体癌、Stage IIIBと診断。
+[2023-01-25]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-02-10]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間140分、出血量948ml。
+[2023-03-04]
+術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、卵巣腫瘍、Stage IVAと診断。
+[2023-01-16]
+治療方針：開腹子宮全摘の方針。
+[2023-02-03]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間131分、出血量622ml。
+[2023-02-25]
+術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 9.8%）あり
+[2023-03-09]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-03-21]
+術後化学療法としてTC療法を開始。 高度肥満（BMI 34.7）
+[2023-04-16]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 与えられたテキストでは、特定のがんの診断名（例：卵巣がん、子宮体癌など）が明確に記載されていません。
+- 「卵巣腫瘍」という記述がありますが、これは特定のがんの診断名ではありません。
+- そのため、明確な診断名がない場合のルールに則って "N/A" を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、卵巣腫瘍、Stage IIAと診断。
+[2023-01-28]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-02-10]
+手術記録：開腹子宮摘出術施行。手術時間127分、出血量68ml。
+[2023-02-21]
+術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 7.6%）あり
+[2023-03-10]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-03-23]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A
+テキストにはがんの具体的な診断名（例：卵巣がん、子宮体癌など）が明記されていません。卵巣腫瘍の診断がありますが、具体的ながんの診断名は記載されていないため、N/A と判断しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮体部癌、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中
+[2023-01-13]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-02-05]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間327分、出血量565ml。
+[2023-02-19]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 39.8）</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、卵巣腫瘍、Stage ICと診断。 腎機能低下（Cr 2.8 mg/dl）
+[2023-01-16]
+治療方針：開腹全摘術の方針。
+[2023-01-28]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間147分、出血量426ml。
+[2023-02-16]
+術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 53%）あり
+[2023-03-03]
+術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 の記録では「卵巣腫瘍」が診断されていますが、がんの具体的な診断名（例：漿液性卵巣癌）は記載されていません。
+- その後の記録では、手術や化学療法の情報が含まれていますが、がんの具体的な診断名が明確に記載されていません。
+- したがって、がんの正式な診断名が見つからないため、"N/A" とします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮頚癌、Stage IVAと診断。
+[2023-01-26]
+治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 46%）あり
+[2023-02-12]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間303分、出血量621ml。
+[2023-03-06]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-03-30]
+術後化学療法としてDC療法を開始。
+[2023-04-20]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"子宮体部類内膜癌"</t>
+          <t>"体部類内膜癌"</t>
         </is>
       </c>
     </row>
@@ -512,186 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"漿液性卵巣癌"</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-組織診の結果、子宮体がん、Stage IIAと診断。 腎機能低下（Cr 1.8 mg/dl）
-[2023-01-24]
-治療方針：開腹全摘術の方針。
-[2023-02-12]
-手術記録：腹腔鏡下子宮摘出術施行。手術時間162分、出血量164ml。
-[2023-02-21]
-術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 8.2%）あり</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"子宮体がん"</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-生検の結果、子宮体癌、Stage IIIBと診断。
-[2023-01-25]
-治療方針：腹腔鏡下子宮全摘の方針。
-[2023-02-10]
-手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間140分、出血量948ml。
-[2023-03-04]
-術後化学療法としてDTX+CBDCAを開始。</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>"子宮体癌"</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-組織診の結果、卵巣腫瘍、Stage IVAと診断。
-[2023-01-16]
-治療方針：開腹子宮全摘の方針。
-[2023-02-03]
-手術記録：腹腔鏡下子宮全摘出術施行。手術時間131分、出血量622ml。
-[2023-02-25]
-術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 9.8%）あり
-[2023-03-09]
-術後化学療法としてDTX+CBDCAを開始。
-[2023-03-21]
-術後化学療法としてTC療法を開始。 高度肥満（BMI 34.7）
-[2023-04-16]
-術後化学療法としてweekly PTXを開始。</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>"N/A"
-解析:
-- 与えられたテキストでは、特定のがんの診断名（例：卵巣がん、子宮体癌など）が明確に記載されていません。
-- 「卵巣腫瘍」という記述がありますが、これは特定のがんの診断名ではありません。
-- そのため、明確な診断名がない場合のルールに則って "N/A" を返します。</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-生検の結果、卵巣腫瘍、Stage IIAと診断。
-[2023-01-28]
-治療方針：開腹子宮全摘+両側付属器切除術の方針。
-[2023-02-10]
-手術記録：開腹子宮摘出術施行。手術時間127分、出血量68ml。
-[2023-02-21]
-術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 7.6%）あり
-[2023-03-10]
-術後化学療法としてパクリタキセル+カルボプラチンを開始。
-[2023-03-23]
-術後化学療法として毎週パクリタキセルを開始。</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>N/A
-テキストにはがんの具体的な診断名（例：卵巣がん、子宮体癌など）が明記されていません。卵巣腫瘍の診断がありますが、具体的ながんの診断名は記載されていないため、N/A と判断しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-生検の結果、子宮体部癌、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中
-[2023-01-13]
-治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
-[2023-02-05]
-手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間327分、出血量565ml。
-[2023-02-19]
-術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 39.8）</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>"子宮体部癌"</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-病理組織診断の結果、卵巣腫瘍、Stage ICと診断。 腎機能低下（Cr 2.8 mg/dl）
-[2023-01-16]
-治療方針：開腹全摘術の方針。
-[2023-01-28]
-手術記録：腹腔鏡下子宮摘出術施行。手術時間147分、出血量426ml。
-[2023-02-16]
-術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 53%）あり
-[2023-03-03]
-術後化学療法としてTCを開始。</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>"N/A"
-解析:
-- 2023-01-01 の記録では「卵巣腫瘍」が診断されていますが、がんの具体的な診断名（例：漿液性卵巣癌）は記載されていません。
-- その後の記録では、手術や化学療法の情報が含まれていますが、がんの具体的な診断名が明確に記載されていません。
-- したがって、がんの正式な診断名が見つからないため、"N/A" とします。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-組織診の結果、子宮頚癌、Stage IVAと診断。
-[2023-01-26]
-治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 46%）あり
-[2023-02-12]
-手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間303分、出血量621ml。
-[2023-03-06]
-術後化学療法として毎週パクリタキセルを開始。
-[2023-03-30]
-術後化学療法としてDC療法を開始。
-[2023-04-20]
-術後化学療法としてwPTXを開始。</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>"子宮頚癌"</t>
+          <t>漿液性卵巣癌</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"体部類内膜癌"</t>
+          <t>"子宮体部類内膜癌"</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,51 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>漿液性卵巣癌</t>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮体がん、Stage IIAと診断。 腎機能低下（Cr 1.8 mg/dl）
+[2023-01-24]
+治療方針：開腹全摘術の方針。
+[2023-02-12]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間162分、出血量164ml。
+[2023-02-21]
+術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 8.2%）あり</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮体癌、Stage IIIBと診断。
+[2023-01-25]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-02-10]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間140分、出血量948ml。
+[2023-03-04]
+術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>分析結果_がん診断名抽出</t>
+          <t>分析結果_extract</t>
         </is>
       </c>
     </row>
@@ -457,22 +457,16 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>[2023-01-01]
-組織診の結果、体部類内膜癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中
-[2023-01-11]
-治療方針：腹腔鏡下子宮全摘の方針。
-[2023-02-10]
-手術記録：腹腔鏡下子宮全摘出術施行。手術時間187分、出血量214ml。
-[2023-02-20]
-術後化学療法としてドセタキセル+カルボプラチンを開始。 抗凝固薬（イグザレルト）服用中
-[2023-03-05]
-術後化学療法としてドセタキセル+カルボプラチンを開始。 糖尿病（HbA1c 9.1%）あり
-[2023-03-13]
-術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 55%）あり</t>
+生検の結果、子宮頸がん、Stage IVCと診断。
+[2023-01-16]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-01]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間217分、出血量344ml。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"子宮体部類内膜癌"</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -483,16 +477,22 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>[2023-01-01]
-内膜組織診の結果、明細胞癌、Stage IIIAと診断。
-[2023-01-30]
-治療方針：腹腔鏡下子宮全摘出術の方針。
-[2023-02-18]
-手術記録：腹腔鏡下子宮全摘施行。手術時間340分、出血量728ml。</t>
+組織診の結果、明細胞癌、Stage IAと診断。
+[2023-01-26]
+治療方針：開腹子宮全摘の方針。 糖尿病（HbA1c 8.4%）あり
+[2023-02-23]
+手術記録：腹腔鏡下全摘術施行。手術時間257分、出血量459ml。
+[2023-03-25]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-04-09]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-04-29]
+術後化学療法としてDTX+CBDCAを開始。 腎機能低下（Cr 1.7 mg/dl）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"明細胞癌"</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -503,60 +503,18 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>[2023-01-01]
-病理組織診断の結果、漿液性卵巣癌、Stage IVCと診断。 高度肥満（BMI 31.6）
-[2023-01-28]
-治療方針：開腹子宮全摘の方針。
-[2023-02-16]
-手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間321分、出血量767ml。</t>
+病理組織診断の結果、子宮頸部癌、Stage IIICと診断。
+[2023-01-23]
+治療方針：開腹子宮全摘出術の方針。
+[2023-02-20]
+手術記録：開腹子宮全摘施行。手術時間330分、出血量925ml。
+[2023-03-04]
+術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 9.2%）あり</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"漿液性卵巣癌"</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-組織診の結果、子宮体がん、Stage IIAと診断。 腎機能低下（Cr 1.8 mg/dl）
-[2023-01-24]
-治療方針：開腹全摘術の方針。
-[2023-02-12]
-手術記録：腹腔鏡下子宮摘出術施行。手術時間162分、出血量164ml。
-[2023-02-21]
-術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 8.2%）あり</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"子宮体がん"</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-生検の結果、子宮体癌、Stage IIIBと診断。
-[2023-01-25]
-治療方針：腹腔鏡下子宮全摘の方針。
-[2023-02-10]
-手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間140分、出血量948ml。
-[2023-03-04]
-術後化学療法としてDTX+CBDCAを開始。</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>"子宮体癌"</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,16 +457,16 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>[2023-01-01]
-生検の結果、子宮頸がん、Stage IVCと診断。
-[2023-01-16]
-治療方針：腹腔鏡下子宮全摘出術の方針。
-[2023-02-01]
-手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間217分、出血量344ml。</t>
+組織診断の結果、子宮頚癌、Stage IVAと診断。 糖尿病（HbA1c 7.8%）あり
+[2023-01-13]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-01-31]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間313分、出血量680ml。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>子宮頸癌</t>
         </is>
       </c>
     </row>
@@ -477,22 +477,20 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>[2023-01-01]
-組織診の結果、明細胞癌、Stage IAと診断。
-[2023-01-26]
-治療方針：開腹子宮全摘の方針。 糖尿病（HbA1c 8.4%）あり
-[2023-02-23]
-手術記録：腹腔鏡下全摘術施行。手術時間257分、出血量459ml。
-[2023-03-25]
-術後化学療法としてweekly パクリタキセルを開始。
-[2023-04-09]
-術後化学療法としてDTX+CBDCAを開始。
-[2023-04-29]
-術後化学療法としてDTX+CBDCAを開始。 腎機能低下（Cr 1.7 mg/dl）</t>
+組織診の結果、子宮内膜癌、Stage ICと診断。
+[2023-01-18]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-02-09]
+手術記録：開腹子宮全摘出術施行。手術時間310分、出血量796ml。
+[2023-02-28]
+術後化学療法としてDCを開始。
+[2023-03-11]
+術後化学療法としてDTX+CBDCAを開始。 腎機能低下（Cr 2.2 mg/dl）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>子宮内膜癌</t>
         </is>
       </c>
     </row>
@@ -503,18 +501,1126 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>[2023-01-01]
-病理組織診断の結果、子宮頸部癌、Stage IIICと診断。
+組織診断の結果、子宮体部癌、Stage IIAと診断。
+[2023-01-10]
+治療方針：開腹子宮全摘の方針。
 [2023-01-23]
+手術記録：腹腔鏡下全摘術施行。手術時間136分、出血量337ml。
+[2023-02-04]
+術後化学療法としてTC療法を開始。
+[2023-02-23]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>子宮体部癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮頸がん、Stage IIAと診断。 心機能低下（EF 43%）あり
+[2023-01-23]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-01-30]
+手術記録：腹腔鏡下子宮全摘施行。手術時間244分、出血量565ml。
+[2023-02-10]
+術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 45%）あり
+[2023-02-19]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-03-13]
+術後化学療法としてTCを開始。 高度肥満（BMI 34.2）</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>子宮頸がん</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、卵巣腫瘍、Stage IIIAと診断。
+[2023-01-17]
+治療方針：腹腔鏡下子宮全摘の方針。
+[2023-01-27]
+手術記録：開腹全摘術施行。手術時間331分、出血量629ml。
+[2023-02-08]
+術後化学療法としてDC療法を開始。
+[2023-03-01]
+術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卵巣腫瘍 Stage IIIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、明細胞癌、Stage ICと診断。
+[2023-01-13]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-07]
+手術記録：開腹子宮全摘出術施行。手術時間160分、出血量201ml。
+[2023-03-01]
+術後化学療法としてweekly PTXを開始。
+[2023-03-08]
+術後化学療法としてDC療法を開始。 高度肥満（BMI 30.7）</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明細胞癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、高異型度漿液性癌、Stage IBと診断。
+[2023-01-25]
+治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（エリキュース）服用中
+[2023-02-05]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間248分、出血量651ml。</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>高異型度漿液性癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮頚癌、Stage IBと診断。
+[2023-01-25]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 糖尿病（HbA1c 7.3%）あり
+[2023-02-07]
+手術記録：腹腔鏡下全摘術施行。手術時間188分、出血量898ml。
+[2023-03-08]
+術後化学療法としてドセタキセル+カルボプラチンを開始。
+[2023-03-24]
+術後化学療法としてweekly PTXを開始。
+[2023-04-14]
+術後化学療法としてwPTXを開始。
+[2023-04-30]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>子宮頚癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、卵巣腫瘍、Stage IIIBと診断。
+[2023-01-21]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。 心機能低下（EF 34%）あり
+[2023-02-01]
+手術記録：開腹子宮全摘施行。手術時間202分、出血量507ml。</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卵巣腫瘍</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、明細胞癌、Stage IIIAと診断。 腎機能低下（Cr 2.8 mg/dl）
+[2023-01-27]
+治療方針：腹腔鏡下子宮摘出術の方針。
+[2023-02-17]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間314分、出血量922ml。
+[2023-03-05]
+術後化学療法としてPTX+CBDCAを開始。 腎機能低下（Cr 2.7 mg/dl）
+[2023-03-20]
+術後化学療法としてDC療法を開始。 糖尿病（HbA1c 10.0%）あり
+[2023-04-08]
+術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>明細胞癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、明細胞癌、Stage IBと診断。
+[2023-01-29]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-13]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間194分、出血量797ml。
+[2023-03-12]
+術後化学療法として毎週パクリタキセルを開始。 糖尿病（HbA1c 8.7%）あり</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>明細胞癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頚癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中
+[2023-01-30]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-08]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間269分、出血量328ml。
+[2023-02-28]
+術後化学療法としてTCを開始。 心機能低下（EF 42%）あり</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>子宮頸癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、明細胞癌、Stage IIIAと診断。 心機能低下（EF 44%）あり
+[2023-01-13]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-01]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間184分、出血量836ml。</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>子宮明細胞癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮体部類内膜癌、Stage IIIBと診断。
+[2023-01-23]
+治療方針：腹腔鏡下子宮全摘の方針。 高度肥満（BMI 37.5）
+[2023-02-20]
+手術記録：腹腔鏡下子宮全摘施行。手術時間131分、出血量453ml。
+[2023-03-10]
+術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>子宮体部類内膜癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、明細胞癌、Stage IIAと診断。
+[2023-01-26]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-04]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間183分、出血量419ml。
+[2023-02-22]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>明細胞癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸癌、Stage IICと診断。 抗凝固薬（イグザレルト）服用中
+[2023-01-25]
 治療方針：開腹子宮全摘出術の方針。
+[2023-02-24]
+手術記録：開腹子宮摘出術施行。手術時間159分、出血量680ml。
+[2023-03-23]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-04-14]
+術後化学療法としてweekly PTXを開始。
+[2023-04-22]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>子宮頸癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮体部癌、Stage ICと診断。
+[2023-01-23]
+治療方針：開腹子宮摘出術の方針。 心機能低下（EF 30%）あり
+[2023-02-10]
+手術記録：腹腔鏡下全摘術施行。手術時間166分、出血量989ml。
+[2023-02-28]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 心機能低下（EF 40%）あり</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>子宮体癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮体がん、Stage IIIAと診断。
+[2023-01-15]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。
+[2023-01-23]
+手術記録：開腹全摘術施行。手術時間137分、出血量406ml。</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>子宮体癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、卵巣癌、Stage ICと診断。
+[2023-01-22]
+治療方針：腹腔鏡下全摘術の方針。 糖尿病（HbA1c 9.3%）あり
+[2023-02-18]
+手術記録：腹腔鏡下全摘術施行。手術時間342分、出血量762ml。
+[2023-03-01]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>卵巣癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮頸部癌、Stage IICと診断。 高度肥満（BMI 37.2）
+[2023-01-10]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-04]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間262分、出血量998ml。
+[2023-03-04]
+術後化学療法としてTC療法を開始。 心機能低下（EF 51%）あり</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>子宮頸部癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頸部癌、Stage IBと診断。
+[2023-01-22]
+治療方針：開腹子宮摘出術の方針。
+[2023-01-30]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間138分、出血量60ml。
+[2023-02-14]
+術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>子宮頸部癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、漿液性卵巣癌、Stage IVCと診断。
+[2023-01-10]
+治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（エリキュース）服用中
+[2023-01-18]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間224分、出血量706ml。
+[2023-02-09]
+術後化学療法としてwPTXを開始。 抗凝固薬（イグザレルト）服用中
+[2023-03-02]
+術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>漿液性卵巣癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、高異型度漿液性癌、Stage IICと診断。 糖尿病（HbA1c 7.8%）あり
+[2023-01-08]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-01-16]
+手術記録：開腹子宮全摘施行。手術時間166分、出血量420ml。
+[2023-01-24]
+術後化学療法としてTCを開始。
+[2023-02-12]
+術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>高異型度漿液性癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体がん、Stage IVAと診断。
+[2023-01-30]
+治療方針：開腹全摘術の方針。
+[2023-02-11]
+手術記録：開腹子宮摘出術施行。手術時間300分、出血量414ml。
+[2023-03-01]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-03-13]
+術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>子宮体癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮内膜癌、Stage IVAと診断。
+[2023-01-09]
+治療方針：開腹子宮全摘の方針。 心機能低下（EF 48%）あり
+[2023-01-24]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間288分、出血量832ml。
+[2023-02-14]
+術後化学療法としてTCを開始。 糖尿病（HbA1c 7.8%）あり
+[2023-03-08]
+術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>子宮内膜癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、卵巣がん、Stage IIICと診断。
+[2023-01-23]
+治療方針：開腹全摘術の方針。
+[2023-02-05]
+手術記録：開腹子宮摘出術施行。手術時間359分、出血量845ml。
+[2023-03-04]
+術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>卵巣がん</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、卵巣癌、Stage IIBと診断。
+[2023-01-30]
+治療方針：開腹全摘術の方針。
+[2023-02-11]
+手術記録：腹腔鏡下全摘術施行。手術時間202分、出血量488ml。</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卵巣癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮体部癌、Stage IVBと診断。
+[2023-01-23]
+治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 8.2%）あり
+[2023-02-06]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間279分、出血量503ml。
+[2023-02-28]
+術後化学療法としてDC療法を開始。 心機能低下（EF 33%）あり
+[2023-03-09]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-03-18]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.4 mg/dl）
+[2023-04-06]
+術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>子宮体部癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、卵巣腫瘍、Stage IVCと診断。 糖尿病（HbA1c 7.1%）あり
+[2023-01-16]
+治療方針：腹腔鏡下子宮摘出術の方針。
+[2023-01-31]
+手術記録：腹腔鏡下子宮全摘施行。手術時間359分、出血量519ml。
+[2023-03-01]
+術後化学療法としてTCを開始。 高度肥満（BMI 39.7）
+[2023-03-22]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 高度肥満（BMI 36.0）
+[2023-04-07]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 心機能低下（EF 46%）あり</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>卵巣腫瘍</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体部類内膜癌、Stage IAと診断。
+[2023-01-19]
+治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 9.4%）あり
+[2023-02-05]
+手術記録：開腹子宮全摘出術施行。手術時間182分、出血量949ml。
+[2023-03-01]
+術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.0 mg/dl）
+[2023-03-25]
+術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>子宮体部類内膜癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、高異型度漿液性癌、Stage IVAと診断。
+[2023-01-08]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-06]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間346分、出血量410ml。</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>漿液性癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮体がん、Stage IVAと診断。
+[2023-01-23]
+治療方針：腹腔鏡下子宮摘出術の方針。
+[2023-02-06]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間309分、出血量326ml。
+[2023-03-01]
+術後化学療法としてTC療法を開始。
+[2023-03-15]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-03-31]
+術後化学療法としてDCを開始。 高度肥満（BMI 32.5）</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>子宮体癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、卵巣腫瘍、Stage IICと診断。
+[2023-01-14]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 2.6 mg/dl）
+[2023-01-21]
+手術記録：開腹子宮全摘施行。手術時間202分、出血量594ml。</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>漿液性卵巣癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸がん、Stage IBと診断。
+[2023-01-29]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-12]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間173分、出血量787ml。
+[2023-02-26]
+術後化学療法としてPTX+CBDCAを開始。 抗凝固薬（プラザキサ）服用中
+[2023-03-06]
+術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>子宮頸がん</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、頚部腺癌、Stage IVAと診断。 糖尿病（HbA1c 8.4%）あり
+[2023-01-09]
+治療方針：腹腔鏡下子宮全摘の方針。 高度肥満（BMI 39.8）
+[2023-01-24]
+手術記録：開腹全摘術施行。手術時間132分、出血量318ml。
 [2023-02-20]
-手術記録：開腹子宮全摘施行。手術時間330分、出血量925ml。
+術後化学療法としてPTX+CBDCAを開始。 抗凝固薬（プラザキサ）服用中
+[2023-03-15]
+術後化学療法としてTC療法を開始。
+[2023-04-04]
+術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>頚部腺癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、卵巣腫瘍、Stage IBと診断。 腎機能低下（Cr 2.6 mg/dl）
+[2023-01-30]
+治療方針：腹腔鏡下子宮全摘出術の方針。 高度肥満（BMI 39.1）
+[2023-02-22]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間262分、出血量968ml。
+[2023-03-20]
+術後化学療法として毎週パクリタキセルを開始。
+[2023-04-04]
+術後化学療法としてドセタキセル+カルボプラチンを開始。
+[2023-04-25]
+術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>漿液性卵巣癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、子宮頸がん、Stage IIAと診断。
+[2023-01-18]
+治療方針：開腹子宮全摘の方針。
+[2023-02-02]
+手術記録：開腹全摘術施行。手術時間334分、出血量838ml。
 [2023-03-04]
-術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 9.2%）あり</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N/A</t>
+術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>子宮頸がん</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、卵巣がん、Stage IIIBと診断。 腎機能低下（Cr 2.9 mg/dl）
+[2023-01-29]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-14]
+手術記録：開腹子宮全摘出術施行。手術時間354分、出血量630ml。
+[2023-03-08]
+術後化学療法としてTC療法を開始。 高度肥満（BMI 35.9）
+[2023-04-03]
+術後化学療法としてPTX+CBDCAを開始。 心機能低下（EF 41%）あり
+[2023-04-29]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-05-21]
+術後化学療法としてweekly パクリタキセルを開始。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>卵巣がん</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、頚部腺癌、Stage IIAと診断。
+[2023-01-15]
+治療方針：開腹子宮全摘+両側付属器切除術の方針。
+[2023-02-04]
+手術記録：開腹全摘術施行。手術時間134分、出血量164ml。
+[2023-02-25]
+術後化学療法としてDC療法を開始。
+[2023-03-11]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-04-08]
+術後化学療法としてDTX+CBDCAを開始。 心機能低下（EF 52%）あり</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>頚部腺癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮頸癌、Stage IICと診断。
+[2023-01-24]
+治療方針：開腹全摘術の方針。
+[2023-02-18]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間147分、出血量61ml。
+[2023-03-08]
+術後化学療法としてwPTXを開始。 糖尿病（HbA1c 8.1%）あり
+[2023-03-29]
+術後化学療法としてweekly パクリタキセルを開始。
+[2023-04-20]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>子宮頸癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮体癌、Stage ICと診断。
+[2023-01-22]
+治療方針：腹腔鏡下全摘術の方針。
+[2023-02-09]
+手術記録：開腹子宮摘出術施行。手術時間265分、出血量997ml。
+[2023-03-11]
+術後化学療法として毎週パクリタキセルを開始。 腎機能低下（Cr 2.2 mg/dl）
+[2023-04-06]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-04-25]
+術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>子宮体癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、子宮体部類内膜癌、Stage IVBと診断。
+[2023-01-08]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-03]
+手術記録：腹腔鏡下子宮全摘出術施行。手術時間145分、出血量772ml。
+[2023-02-12]
+術後化学療法としてTCを開始。 高度肥満（BMI 37.7）</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>子宮体部類内膜癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、体部類内膜癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中
+[2023-01-16]
+治療方針：開腹子宮摘出術の方針。
+[2023-02-07]
+手術記録：腹腔鏡下子宮全摘施行。手術時間208分、出血量732ml。
+[2023-03-02]
+術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>子宮体部類内膜癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、子宮頚癌、Stage IIIAと診断。 腎機能低下（Cr 2.4 mg/dl）
+[2023-01-16]
+治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 7.8%）あり
+[2023-02-15]
+手術記録：開腹子宮全摘出術施行。手術時間338分、出血量907ml。
+[2023-03-15]
+術後化学療法としてwPTXを開始。
+[2023-03-30]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-04-21]
+術後化学療法としてDTX+CBDCAを開始。 心機能低下（EF 32%）あり</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>子宮頚癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織生検の結果、明細胞癌、Stage ICと診断。
+[2023-01-20]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-09]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間133分、出血量700ml。
+[2023-03-08]
+術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>明細胞癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮頚癌、Stage IVCと診断。
+[2023-01-13]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-04]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間338分、出血量788ml。
+[2023-02-20]
+術後化学療法としてDC療法を開始。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>子宮頚癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診の結果、子宮内膜癌、Stage ICと診断。 抗凝固薬（エリキュース）服用中
+[2023-01-23]
+治療方針：開腹子宮全摘出術の方針。 腎機能低下（Cr 1.6 mg/dl）
+[2023-02-01]
+手術記録：開腹全摘術施行。手術時間209分、出血量665ml。
+[2023-02-14]
+術後化学療法としてDC療法を開始。
+[2023-02-24]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。 糖尿病（HbA1c 9.4%）あり</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>子宮内膜癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+生検の結果、卵巣癌、Stage IVCと診断。
+[2023-01-23]
+治療方針：開腹全摘術の方針。
+[2023-02-12]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間149分、出血量163ml。
+[2023-02-25]
+術後化学療法としてDTX+CBDCAを開始。
+[2023-03-26]
+術後化学療法としてweekly PTXを開始。 腎機能低下（Cr 2.7 mg/dl）
+[2023-04-06]
+術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>卵巣癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+内膜組織診の結果、卵巣腫瘍、Stage IAと診断。
+[2023-01-12]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-08]
+手術記録：腹腔鏡下子宮摘出術施行。手術時間152分、出血量741ml。
+[2023-02-21]
+術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>漿液性卵巣癌</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+病理組織診断の結果、子宮体部類内膜癌、Stage IAと診断。
+[2023-01-21]
+治療方針：腹腔鏡下子宮摘出術の方針。
+[2023-02-03]
+手術記録：腹腔鏡下全摘術施行。手術時間357分、出血量631ml。
+[2023-02-25]
+術後化学療法としてPTX+CBDCAを開始。
+[2023-03-11]
+術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>子宮体部類内膜癌</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -472,7 +472,9 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>子宮体部類内膜癌</t>
+          <t>```json
+{"result": "子宮体部類内膜癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
+```</t>
         </is>
       </c>
     </row>
@@ -500,11 +502,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>子宮体部類内膜癌
-根拠:
-- [2023-01-01]の記録に「子宮体部癌、Stage IC」と明確な診断名が記載されています。
-- テキスト中の組織型の詳細は示されていませんが、一般的に子宮体癌は多くが類内膜癌であるため、類内膜癌と判断しました。
-- 最新の診断ではなく、最初の診断を採用しています。</t>
+          <t>```json
+{"result": "子宮体部癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
+```</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>子宮頚癌（Stage IVC）</t>
+          <t>```json
+{"result": "子宮頚癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
+```</t>
         </is>
       </c>
     </row>
@@ -556,7 +558,9 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>子宮体部類内膜癌</t>
+          <t>```json
+{"result": "子宮体部類内膜癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
+```</t>
         </is>
       </c>
     </row>
@@ -578,7 +582,9 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>診断名: 子宮内膜癌 Stage IB</t>
+          <t>```json
+{"result": "子宮内膜癌", "reason": "2023-01-01の病理組織診断結果に記載された最新の診断名"}
+```</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>分析結果_extract</t>
+          <t>分析結果_cancer_diagnosis_extract</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>分析結果_diagnostic_test_extract</t>
         </is>
       </c>
     </row>
@@ -475,6 +480,14 @@
           <t>```json
 {"result": "子宮体部類内膜癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
 ```</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>**検査情報:**  
+- **組織診:** 2023-01-01 内膜組織診の結果、体部類内膜癌、Stage IAと診断。
+**最新の検査結果:**  
+- **組織診:** 体部類内膜癌、Stage IA</t>
         </is>
       </c>
     </row>
@@ -507,6 +520,13 @@
 ```</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>検査情報: 内膜組織診
+検査結果: 子宮体部癌、Stage IC
+日付: 2023-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -531,6 +551,13 @@
           <t>```json
 {"result": "子宮頚癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
 ```</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>**検査情報:** 組織診  
+**検査結果:** 子宮頚癌、Stage IVC  
+**日付:** 2023-01-01</t>
         </is>
       </c>
     </row>
@@ -563,6 +590,14 @@
 ```</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>**検査情報:**  
+- **組織生検:** 子宮体部類内膜癌、Stage IIA (2023-01-01)
+**最新の検査結果:**  
+- **組織生検:** 子宮体部類内膜癌、Stage IIA (2023-01-01)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -587,6 +622,12 @@
 ```</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>**検査情報:** 病理組織診断 (2023-01-01)
+**検査結果:** 子宮内膜癌、Stage IB</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>分析結果_cancer_diagnosis_extract_理由</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>分析結果_diagnostic_test_extract</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>分析結果_diagnostic_test_extract_理由</t>
         </is>
       </c>
     </row>
@@ -477,17 +487,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>```json
-{"result": "子宮体部類内膜癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
-```</t>
+          <t>子宮体部類内膜癌</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-01-01のカルテに記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>**検査情報:**  
 - **組織診:** 2023-01-01 内膜組織診の結果、体部類内膜癌、Stage IAと診断。
 **最新の検査結果:**  
 - **組織診:** 体部類内膜癌、Stage IA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>理由なし</t>
         </is>
       </c>
     </row>
@@ -515,16 +533,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>```json
-{"result": "子宮体部癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
-```</t>
+          <t>子宮体部癌</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>検査情報: 内膜組織診
-検査結果: 子宮体部癌、Stage IC
-日付: 2023-01-01</t>
+          <t>2023-01-01のカルテに記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>**検査情報:** 内膜組織診  
+**検査結果:** 子宮体部癌、Stage IC  
+**日付:** 2023-01-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>理由なし</t>
         </is>
       </c>
     </row>
@@ -548,16 +574,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>```json
-{"result": "子宮頚癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
-```</t>
+          <t>子宮頚癌</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>**検査情報:** 組織診  
-**検査結果:** 子宮頚癌、Stage IVC  
-**日付:** 2023-01-01</t>
+          <t>2023-01-01のカルテに記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>**検査情報:**  
+- **組織診:** 子宮頚癌、Stage IVC (2023-01-01)  
+**最新の検査結果:**  
+- **組織診:** 子宮頚癌、Stage IVC (2023-01-01)  
+他の検査情報は見つかりませんでした。</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>理由なし</t>
         </is>
       </c>
     </row>
@@ -585,17 +621,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>```json
-{"result": "子宮体部類内膜癌", "reason": "2023-01-01のカルテに記載された最新の診断名"}
-```</t>
+          <t>子宮体部類内膜癌</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>**検査情報:**  
-- **組織生検:** 子宮体部類内膜癌、Stage IIA (2023-01-01)
-**最新の検査結果:**  
-- **組織生検:** 子宮体部類内膜癌、Stage IIA (2023-01-01)</t>
+          <t>2023-01-01のカルテに記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>**検査情報:**
+- **組織生検**: 2023-01-01
+  - 結果: 子宮体部類内膜癌、Stage IIA
+**最新の検査情報:**
+- **組織生検**: 2023-01-01
+  - 結果: 子宮体部類内膜癌、Stage IIA
+他の検査情報は見つかりませんでした。</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>理由なし</t>
         </is>
       </c>
     </row>
@@ -617,15 +664,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>```json
-{"result": "子宮内膜癌", "reason": "2023-01-01の病理組織診断結果に記載された最新の診断名"}
-```</t>
+          <t>子宮内膜癌</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-01-01の病理組織診断結果に記載された最新の診断名</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>**検査情報:** 病理組織診断 (2023-01-01)
 **検査結果:** 子宮内膜癌、Stage IB</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>理由なし</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>分析結果_diagnostic_test_extract</t>
+          <t>分析結果_chemotherapy_info_extract</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>分析結果_diagnostic_test_extract_理由</t>
+          <t>分析結果_chemotherapy_info_extract_理由</t>
         </is>
       </c>
     </row>
@@ -497,15 +497,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>**検査情報:**  
-- **組織診:** 2023-01-01 内膜組織診の結果、体部類内膜癌、Stage IAと診断。
-**最新の検査結果:**  
-- **組織診:** 体部類内膜癌、Stage IA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>理由なし</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>
@@ -543,144 +540,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>**検査情報:** 内膜組織診  
-**検査結果:** 子宮体部癌、Stage IC  
-**日付:** 2023-01-01</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>理由なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-組織診の結果、子宮頚癌、Stage IVCと診断。
-[2023-01-21]
-治療方針：腹腔鏡下子宮全摘出術の方針。
-[2023-01-31]
-手術記録：腹腔鏡下子宮全摘出術施行。手術時間283分、出血量423ml。
-[2023-02-09]
-術後化学療法としてTCを開始。
-[2023-02-20]
-術後化学療法としてwPTXを開始。</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>子宮頚癌</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-01-01のカルテに記載された最新の診断名</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>**検査情報:**  
-- **組織診:** 子宮頚癌、Stage IVC (2023-01-01)  
-**最新の検査結果:**  
-- **組織診:** 子宮頚癌、Stage IVC (2023-01-01)  
-他の検査情報は見つかりませんでした。</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>理由なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-組織生検の結果、子宮体部類内膜癌、Stage IIAと診断。
-[2023-01-09]
-治療方針：腹腔鏡下子宮全摘の方針。
-[2023-01-25]
-手術記録：開腹子宮全摘出術施行。手術時間315分、出血量895ml。
-[2023-02-23]
-術後化学療法としてTCを開始。
-[2023-03-02]
-術後化学療法としてTCを開始。
-[2023-03-10]
-術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 41%）あり
-[2023-03-20]
-術後化学療法として毎週パクリタキセルを開始。 高度肥満（BMI 35.8）</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>子宮体部類内膜癌</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023-01-01のカルテに記載された最新の診断名</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>**検査情報:**
-- **組織生検**: 2023-01-01
-  - 結果: 子宮体部類内膜癌、Stage IIA
-**最新の検査情報:**
-- **組織生検**: 2023-01-01
-  - 結果: 子宮体部類内膜癌、Stage IIA
-他の検査情報は見つかりませんでした。</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>理由なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[2023-01-01]
-病理組織診断の結果、子宮内膜癌、Stage IBと診断。 糖尿病（HbA1c 8.3%）あり
-[2023-01-09]
-治療方針：開腹全摘術の方針。 腎機能低下（Cr 1.6 mg/dl）
-[2023-02-02]
-手術記録：腹腔鏡下子宮摘出術施行。手術時間243分、出血量446ml。
-[2023-02-18]
-術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>子宮内膜癌</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2023-01-01の病理組織診断結果に記載された最新の診断名</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>**検査情報:** 病理組織診断 (2023-01-01)
-**検査結果:** 子宮内膜癌、Stage IB</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>理由なし</t>
+          <t>エラーが発生しました</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>分析結果_chemotherapy_info_extract</t>
+          <t>分析結果_cancer_stage_extract</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>分析結果_chemotherapy_info_extract_理由</t>
+          <t>分析結果_cancer_stage_extract_理由</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>分析結果_diagnostic_test_extract</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>分析結果_diagnostic_test_extract_理由</t>
         </is>
       </c>
     </row>
@@ -497,12 +507,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Stage IA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>エラーが発生しました</t>
+          <t>2023-01-01の内膜組織診の結果に記載された確定ステージ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>内膜組織診: 体部類内膜癌、Stage IA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載より、内膜組織診の結果が体部類内膜癌、Stage IAと診断されているため</t>
         </is>
       </c>
     </row>
@@ -540,12 +560,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Stage IC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>エラーが発生しました</t>
+          <t>2023-01-01の内膜組織診の結果に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>子宮体部癌、Stage IC (内膜組織診)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-01-01の記載より、内膜組織診の結果が子宮体部癌、Stage ICと診断されているため。</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,47 +482,47 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>[2023-01-01]
-内膜組織診の結果、体部類内膜癌、Stage IAと診断。 糖尿病（HbA1c 8.8%）あり
-[2023-01-12]
-治療方針：腹腔鏡下子宮全摘の方針。
-[2023-01-29]
-手術記録：腹腔鏡下子宮全摘施行。手術時間325分、出血量514ml。
-[2023-02-08]
-術後化学療法としてDCを開始。
-[2023-02-25]
-術後化学療法としてPTX+CBDCAを開始。
-[2023-03-10]
-術後化学療法としてDC療法を開始。</t>
+内膜組織診の結果、漿液性卵巣癌、Stage IIIAと診断。 抗凝固薬（エリキュース）服用中
+[2023-01-26]
+治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 1.9 mg/dl）
+[2023-02-20]
+手術記録：腹腔鏡下子宮全摘施行。手術時間242分、出血量275ml。
+[2023-03-15]
+術後化学療法としてパクリタキセル+カルボプラチンを開始。
+[2023-03-24]
+術後化学療法としてweekly PTXを開始。
+[2023-04-15]
+術後化学療法としてPTX+CBDCAを開始。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>子宮体部類内膜癌</t>
+          <t>漿液性卵巣癌</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-01-01のカルテに記載された最新の診断名</t>
+          <t>カルテ1行目に記載された最新の診断名</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stage IA</t>
+          <t>Stage IIIA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-01-01の内膜組織診の結果に記載された確定ステージ</t>
+          <t>2023-01-01のカルテに記載された最新のステージ情報</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>内膜組織診: 体部類内膜癌、Stage IA</t>
+          <t>2023/01/01 内膜組織診: 漿液性卵巣癌、Stage IIIA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-01の記載より、内膜組織診の結果が体部類内膜癌、Stage IAと診断されているため</t>
+          <t>2023-01-01の記載から内膜組織診の結果が抽出されました。</t>
         </is>
       </c>
     </row>
@@ -533,49 +533,98 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>[2023-01-01]
-内膜組織診の結果、子宮体部癌、Stage ICと診断。
-[2023-01-23]
-治療方針：開腹子宮摘出術の方針。
-[2023-01-30]
-手術記録：開腹子宮全摘施行。手術時間217分、出血量143ml。
-[2023-02-15]
-術後化学療法としてDTX+CBDCAを開始。
+組織診断の結果、卵巣腫瘍、Stage IICと診断。 高度肥満（BMI 36.2）
+[2023-01-22]
+治療方針：開腹子宮全摘出術の方針。
+[2023-02-11]
+手術記録：腹腔鏡下子宮全摘施行。手術時間255分、出血量853ml。
+[2023-03-04]
+術後化学療法としてドセタキセル+カルボプラチンを開始。
+[2023-04-02]
+術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{"result": "卵巣腫瘍", "reason": "2023-01-01のカルテに記載された最新の診断名"}
+ただし、"卵巣腫瘍"はがんの具体的な診断名とは言えません。病理診断などで具体的な組織型が記載されていないため、より具体的な診断名が見つからなかった場合、以下のように出力します。
+{"result": "記載なし", "reason": "がんの具体的な診断名の記載が見つかりませんでした"}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JSONエラー</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Stage IIC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診断結果に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023/02/11 腹腔鏡下子宮全摘施行</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-02-11の手術記録から抽出</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[2023-01-01]
+組織診断の結果、卵巣癌、Stage IBと診断。
+[2023-01-09]
+治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（イグザレルト）服用中
+[2023-02-03]
+手術記録：開腹子宮全摘出術施行。手術時間226分、出血量72ml。
 [2023-03-03]
-術後化学療法として毎週パクリタキセルを開始。
-[2023-03-13]
-術後化学療法としてweekly PTXを開始。
-[2023-04-05]
-術後化学療法として毎週パクリタキセルを開始。</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>子宮体部癌</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+術後化学療法としてドセタキセル+カルボプラチンを開始。
+[2023-03-30]
+術後化学療法としてTC療法を開始。
+[2023-04-29]
+術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 47%）あり</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卵巣癌</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>2023-01-01のカルテに記載された最新の診断名</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Stage IC</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023-01-01の内膜組織診の結果に記載された最新のステージ情報</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>子宮体部癌、Stage IC (内膜組織診)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2023-01-01の記載より、内膜組織診の結果が子宮体部癌、Stage ICと診断されているため。</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Stage IB</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-01-01の組織診断の結果に記載された最新のステージ情報</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023/02/03 開腹子宮全摘出術</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-02-03の手術記録から抽出</t>
         </is>
       </c>
     </row>

--- a/analyzed_results.xlsx
+++ b/analyzed_results.xlsx
@@ -482,32 +482,26 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>[2023-01-01]
-内膜組織診の結果、漿液性卵巣癌、Stage IIIAと診断。 抗凝固薬（エリキュース）服用中
-[2023-01-26]
-治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 1.9 mg/dl）
-[2023-02-20]
-手術記録：腹腔鏡下子宮全摘施行。手術時間242分、出血量275ml。
-[2023-03-15]
-術後化学療法としてパクリタキセル+カルボプラチンを開始。
-[2023-03-24]
-術後化学療法としてweekly PTXを開始。
-[2023-04-15]
-術後化学療法としてPTX+CBDCAを開始。</t>
+組織診断の結果、卵巣がん、Stage IICと診断。 心機能低下（EF 31%）あり
+[2023-01-08]
+治療方針：開腹全摘術の方針。
+[2023-01-21]
+手術記録：開腹子宮全摘施行。手術時間123分、出血量330ml。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>漿液性卵巣癌</t>
+          <t>卵巣がん</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>カルテ1行目に記載された最新の診断名</t>
+          <t>2023-01-01のカルテに記載された最新の診断名</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stage IIIA</t>
+          <t>Stage IIC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -517,12 +511,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023/01/01 内膜組織診: 漿液性卵巣癌、Stage IIIA</t>
+          <t>2023/01/21 開腹子宮全摘施行</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-01-01の記載から内膜組織診の結果が抽出されました。</t>
+          <t>2023-01-21の手術記録から抽出</t>
         </is>
       </c>
     </row>
@@ -533,47 +527,45 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>[2023-01-01]
-組織診断の結果、卵巣腫瘍、Stage IICと診断。 高度肥満（BMI 36.2）
-[2023-01-22]
-治療方針：開腹子宮全摘出術の方針。
-[2023-02-11]
-手術記録：腹腔鏡下子宮全摘施行。手術時間255分、出血量853ml。
-[2023-03-04]
+組織生検の結果、卵巣癌、Stage IIICと診断。
+[2023-01-30]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-03-01]
+手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間182分、出血量217ml。
+[2023-03-24]
 術後化学療法としてドセタキセル+カルボプラチンを開始。
-[2023-04-02]
-術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+[2023-04-23]
+術後化学療法として毎週パクリタキセルを開始。 高度肥満（BMI 37.6）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{"result": "卵巣腫瘍", "reason": "2023-01-01のカルテに記載された最新の診断名"}
-ただし、"卵巣腫瘍"はがんの具体的な診断名とは言えません。病理診断などで具体的な組織型が記載されていないため、より具体的な診断名が見つからなかった場合、以下のように出力します。
-{"result": "記載なし", "reason": "がんの具体的な診断名の記載が見つかりませんでした"}</t>
+          <t>卵巣癌</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JSONエラー</t>
+          <t>2023-01-01のカルテに記載された最新の診断名</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Stage IIC</t>
+          <t>Stage IIIC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診断結果に記載された最新のステージ情報</t>
+          <t>カルテ1行目に記載された最新のステージ情報</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023/02/11 腹腔鏡下子宮全摘施行</t>
+          <t>2023/03/01 開腹子宮全摘+両側付属器切除術</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-02-11の手術記録から抽出</t>
+          <t>2023-03-01の手術記録から抽出</t>
         </is>
       </c>
     </row>
@@ -584,22 +576,16 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>[2023-01-01]
-組織診断の結果、卵巣癌、Stage IBと診断。
-[2023-01-09]
-治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（イグザレルト）服用中
-[2023-02-03]
-手術記録：開腹子宮全摘出術施行。手術時間226分、出血量72ml。
-[2023-03-03]
-術後化学療法としてドセタキセル+カルボプラチンを開始。
-[2023-03-30]
-術後化学療法としてTC療法を開始。
-[2023-04-29]
-術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 47%）あり</t>
+組織診の結果、卵巣腫瘍、Stage IVBと診断。
+[2023-01-24]
+治療方針：腹腔鏡下子宮全摘出術の方針。
+[2023-02-16]
+手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間308分、出血量75ml。</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>卵巣癌</t>
+          <t>卵巣腫瘍</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -609,22 +595,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stage IB</t>
+          <t>Stage IVB</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-01-01の組織診断の結果に記載された最新のステージ情報</t>
+          <t>2023-01-01のカルテに記載された最新のステージ情報</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023/02/03 開腹子宮全摘出術</t>
+          <t>2023/02/16 腹腔鏡下子宮全摘+両側付属器切除術</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-02-03の手術記録から抽出</t>
+          <t>2023-02-16の手術記録から抽出</t>
         </is>
       </c>
     </row>
